--- a/etc/doc/단위테스트결과서/단위테스트결과서(UT-IDX-REG-03).xlsx
+++ b/etc/doc/단위테스트결과서/단위테스트결과서(UT-IDX-REG-03).xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="65">
   <si>
     <t>순번</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -126,10 +126,6 @@
   <si>
     <t>테스트 
 완료일자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YYYY-MM-DD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -294,6 +290,10 @@
   </si>
   <si>
     <t>3. 삭제버튼 클릭시 정상적으로 삭제되는지 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -550,9 +550,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -589,45 +586,48 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -658,14 +658,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1107,7 +1107,7 @@
   <dimension ref="A2:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1122,10 +1122,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="24"/>
+      <c r="B2" s="16"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -1133,115 +1133,115 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="12" t="s">
+      <c r="B3" s="23"/>
+      <c r="C3" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="25" t="s">
+      <c r="F3" s="18"/>
+      <c r="G3" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="23"/>
+      <c r="J3" s="15">
+        <v>43823</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="23"/>
+      <c r="C4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="18"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="23"/>
+      <c r="J4" s="15">
+        <v>43826</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="23"/>
+      <c r="C5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="17"/>
-      <c r="J3" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4" s="20"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="17"/>
-      <c r="J4" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="16" t="s">
+      <c r="F5" s="18"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="17"/>
-      <c r="J5" s="3" t="s">
-        <v>25</v>
+      <c r="I5" s="23"/>
+      <c r="J5" s="15">
+        <v>43830</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="20"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="18"/>
     </row>
     <row r="7" spans="1:10" ht="129" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="20"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="18"/>
     </row>
     <row r="8" spans="1:10" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
@@ -1256,366 +1256,365 @@
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="F9" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="23"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="21" t="s">
+      <c r="H9" s="26"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="24" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="22"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="7" t="s">
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J10" s="22"/>
+      <c r="J10" s="25"/>
     </row>
     <row r="11" spans="1:10" ht="24" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
+      <c r="A11" s="4">
         <v>1</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" s="6" t="s">
+      <c r="H11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>2</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="G11" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-    </row>
-    <row r="12" spans="1:10" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5">
-        <v>2</v>
-      </c>
-      <c r="B12" s="4" t="s">
+      <c r="F12" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6" t="s">
+      <c r="H12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>3</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F12" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-    </row>
-    <row r="13" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5">
-        <v>3</v>
-      </c>
-      <c r="B13" s="4" t="s">
+      <c r="G13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
+      <c r="H13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" s="3"/>
     </row>
     <row r="14" spans="1:10" ht="69" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="14"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="15"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="14"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
     </row>
     <row r="15" spans="1:10" ht="69" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
     </row>
     <row r="16" spans="1:10" ht="69" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
     </row>
     <row r="17" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
     </row>
     <row r="18" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
     </row>
     <row r="19" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
     </row>
     <row r="20" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
     </row>
     <row r="21" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="5"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
     </row>
     <row r="22" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="5"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
     </row>
     <row r="23" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="5"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
+      <c r="A23" s="4"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
     </row>
     <row r="24" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="5"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
     </row>
     <row r="25" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="5"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
     </row>
     <row r="26" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="5"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
     </row>
     <row r="27" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="5"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
+      <c r="A27" s="4"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
     </row>
     <row r="28" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="5"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
+      <c r="A28" s="4"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
     </row>
     <row r="29" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="5"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
+      <c r="A29" s="4"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
     </row>
     <row r="30" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="5"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
+      <c r="A30" s="4"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
     </row>
     <row r="31" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="5"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
+      <c r="A31" s="4"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
     </row>
     <row r="32" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="5"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
+      <c r="A32" s="4"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="G9:I9"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C6:J6"/>
@@ -1626,6 +1625,19 @@
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="F9:F10"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1638,7 +1650,7 @@
   <dimension ref="A2:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1653,319 +1665,350 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="9" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="12" t="s">
+      <c r="B3" s="23"/>
+      <c r="C3" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="26" t="s">
+      <c r="F3" s="18"/>
+      <c r="G3" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="17"/>
-      <c r="J3" s="3" t="s">
+      <c r="I3" s="23"/>
+      <c r="J3" s="15">
+        <v>43823</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="23"/>
+      <c r="C4" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="18"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="23"/>
+      <c r="J4" s="15">
+        <v>43826</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="23"/>
+      <c r="C5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="18"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="23"/>
+      <c r="J5" s="15">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="23"/>
+      <c r="C6" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="20"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="17"/>
-      <c r="J4" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="17"/>
-      <c r="J5" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="20"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="18"/>
     </row>
     <row r="7" spans="1:10" ht="127.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="20"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="18"/>
     </row>
     <row r="8" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B9" s="35"/>
       <c r="C9" s="35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D9" s="35"/>
       <c r="E9" s="35"/>
       <c r="F9" s="35"/>
       <c r="G9" s="35"/>
       <c r="H9" s="35"/>
-      <c r="I9" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="J9" s="7" t="s">
+      <c r="I9" s="6" t="s">
         <v>43</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="30"/>
+      <c r="C10" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="31"/>
       <c r="B11" s="32"/>
-      <c r="C11" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
+      <c r="C11" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="31"/>
       <c r="B12" s="32"/>
-      <c r="C12" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
+      <c r="C12" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="31"/>
       <c r="B13" s="32"/>
-      <c r="C13" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
+      <c r="C13" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="31"/>
       <c r="B14" s="32"/>
-      <c r="C14" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
+      <c r="C14" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="31"/>
       <c r="B15" s="32"/>
-      <c r="C15" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
+      <c r="C15" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="31"/>
       <c r="B16" s="32"/>
-      <c r="C16" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
+      <c r="C16" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="31"/>
       <c r="B17" s="32"/>
-      <c r="C17" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
+      <c r="C17" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="31"/>
       <c r="B18" s="32"/>
-      <c r="C18" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
+      <c r="C18" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="31"/>
       <c r="B19" s="32"/>
-      <c r="C19" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
+      <c r="C19" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="33"/>
       <c r="B20" s="34"/>
-      <c r="C20" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
+      <c r="C20" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A4:B4"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C17:H17"/>
     <mergeCell ref="C18:H18"/>
@@ -1982,6 +2025,19 @@
     <mergeCell ref="C13:H13"/>
     <mergeCell ref="C14:H14"/>
     <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A4:B4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2009,15 +2065,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>45</v>
+      <c r="A1" s="9" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="39"/>
+      <c r="B2" s="41"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -2025,63 +2081,63 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="17"/>
+      <c r="B3" s="23"/>
       <c r="C3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="20"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="18"/>
     </row>
     <row r="4" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="7" t="s">
+      <c r="B4" s="23"/>
+      <c r="C4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="20"/>
+      <c r="E4" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="18"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="20"/>
+      <c r="A6" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="18"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="37"/>
@@ -2096,294 +2152,294 @@
       <c r="J7" s="38"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="40"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="41"/>
+      <c r="A8" s="39"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="40"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="40"/>
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="41"/>
+      <c r="A9" s="39"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="40"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="40"/>
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="41"/>
+      <c r="A10" s="39"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="40"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="40"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="41"/>
+      <c r="A11" s="39"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="40"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="40"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="41"/>
+      <c r="A12" s="39"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="40"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="40"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="41"/>
+      <c r="A13" s="39"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="40"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="40"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="41"/>
+      <c r="A14" s="39"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="40"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="40"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="41"/>
+      <c r="A15" s="39"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="40"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="40"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="41"/>
+      <c r="A16" s="39"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="40"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="40"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="41"/>
+      <c r="A17" s="39"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="40"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="40"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="41"/>
+      <c r="A18" s="39"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="40"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="40"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="41"/>
+      <c r="A19" s="39"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="40"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="40"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="41"/>
+      <c r="A20" s="39"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="40"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="40"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="41"/>
+      <c r="A21" s="39"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="40"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="40"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="41"/>
+      <c r="A22" s="39"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="40"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="40"/>
-      <c r="B23" s="40"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="41"/>
+      <c r="A23" s="39"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="40"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="40"/>
-      <c r="B24" s="40"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="40"/>
-      <c r="J24" s="41"/>
+      <c r="A24" s="39"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="40"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="40"/>
-      <c r="B25" s="40"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="41"/>
+      <c r="A25" s="39"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="40"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="40"/>
-      <c r="B26" s="40"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="40"/>
-      <c r="I26" s="40"/>
-      <c r="J26" s="41"/>
+      <c r="A26" s="39"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="40"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="40"/>
-      <c r="B27" s="40"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="41"/>
+      <c r="A27" s="39"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="40"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="40"/>
-      <c r="B28" s="40"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="40"/>
-      <c r="I28" s="40"/>
-      <c r="J28" s="41"/>
+      <c r="A28" s="39"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="40"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="40"/>
-      <c r="B29" s="40"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="40"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="40"/>
-      <c r="H29" s="40"/>
-      <c r="I29" s="40"/>
-      <c r="J29" s="41"/>
+      <c r="A29" s="39"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="40"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="40"/>
-      <c r="B30" s="40"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="40"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="41"/>
+      <c r="A30" s="39"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="40"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="20"/>
+      <c r="A31" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="18"/>
     </row>
     <row r="32" spans="1:10" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="36"/>
@@ -2398,18 +2454,18 @@
       <c r="J32" s="38"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="20"/>
+      <c r="A33" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="18"/>
     </row>
     <row r="34" spans="1:10" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="36"/>
@@ -2424,16 +2480,16 @@
       <c r="J34" s="38"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="25"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="20"/>
+      <c r="A35" s="17"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="18"/>
     </row>
     <row r="36" spans="1:10" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="36"/>
@@ -2448,16 +2504,16 @@
       <c r="J36" s="38"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="25"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="20"/>
+      <c r="A37" s="17"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="18"/>
     </row>
     <row r="38" spans="1:10" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="36"/>
@@ -2472,16 +2528,16 @@
       <c r="J38" s="38"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="25"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="20"/>
+      <c r="A39" s="17"/>
+      <c r="B39" s="28"/>
+      <c r="C39" s="28"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="28"/>
+      <c r="J39" s="18"/>
     </row>
     <row r="40" spans="1:10" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="36"/>
@@ -2496,16 +2552,16 @@
       <c r="J40" s="38"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" s="25"/>
-      <c r="B41" s="19"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="20"/>
+      <c r="A41" s="17"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="18"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="37"/>
@@ -2520,292 +2576,292 @@
       <c r="J42" s="38"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" s="40"/>
-      <c r="B43" s="40"/>
-      <c r="C43" s="40"/>
-      <c r="D43" s="40"/>
-      <c r="E43" s="40"/>
-      <c r="F43" s="40"/>
-      <c r="G43" s="40"/>
-      <c r="H43" s="40"/>
-      <c r="I43" s="40"/>
-      <c r="J43" s="41"/>
+      <c r="A43" s="39"/>
+      <c r="B43" s="39"/>
+      <c r="C43" s="39"/>
+      <c r="D43" s="39"/>
+      <c r="E43" s="39"/>
+      <c r="F43" s="39"/>
+      <c r="G43" s="39"/>
+      <c r="H43" s="39"/>
+      <c r="I43" s="39"/>
+      <c r="J43" s="40"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" s="40"/>
-      <c r="B44" s="40"/>
-      <c r="C44" s="40"/>
-      <c r="D44" s="40"/>
-      <c r="E44" s="40"/>
-      <c r="F44" s="40"/>
-      <c r="G44" s="40"/>
-      <c r="H44" s="40"/>
-      <c r="I44" s="40"/>
-      <c r="J44" s="41"/>
+      <c r="A44" s="39"/>
+      <c r="B44" s="39"/>
+      <c r="C44" s="39"/>
+      <c r="D44" s="39"/>
+      <c r="E44" s="39"/>
+      <c r="F44" s="39"/>
+      <c r="G44" s="39"/>
+      <c r="H44" s="39"/>
+      <c r="I44" s="39"/>
+      <c r="J44" s="40"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45" s="40"/>
-      <c r="B45" s="40"/>
-      <c r="C45" s="40"/>
-      <c r="D45" s="40"/>
-      <c r="E45" s="40"/>
-      <c r="F45" s="40"/>
-      <c r="G45" s="40"/>
-      <c r="H45" s="40"/>
-      <c r="I45" s="40"/>
-      <c r="J45" s="41"/>
+      <c r="A45" s="39"/>
+      <c r="B45" s="39"/>
+      <c r="C45" s="39"/>
+      <c r="D45" s="39"/>
+      <c r="E45" s="39"/>
+      <c r="F45" s="39"/>
+      <c r="G45" s="39"/>
+      <c r="H45" s="39"/>
+      <c r="I45" s="39"/>
+      <c r="J45" s="40"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" s="40"/>
-      <c r="B46" s="40"/>
-      <c r="C46" s="40"/>
-      <c r="D46" s="40"/>
-      <c r="E46" s="40"/>
-      <c r="F46" s="40"/>
-      <c r="G46" s="40"/>
-      <c r="H46" s="40"/>
-      <c r="I46" s="40"/>
-      <c r="J46" s="41"/>
+      <c r="A46" s="39"/>
+      <c r="B46" s="39"/>
+      <c r="C46" s="39"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="39"/>
+      <c r="F46" s="39"/>
+      <c r="G46" s="39"/>
+      <c r="H46" s="39"/>
+      <c r="I46" s="39"/>
+      <c r="J46" s="40"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47" s="40"/>
-      <c r="B47" s="40"/>
-      <c r="C47" s="40"/>
-      <c r="D47" s="40"/>
-      <c r="E47" s="40"/>
-      <c r="F47" s="40"/>
-      <c r="G47" s="40"/>
-      <c r="H47" s="40"/>
-      <c r="I47" s="40"/>
-      <c r="J47" s="41"/>
+      <c r="A47" s="39"/>
+      <c r="B47" s="39"/>
+      <c r="C47" s="39"/>
+      <c r="D47" s="39"/>
+      <c r="E47" s="39"/>
+      <c r="F47" s="39"/>
+      <c r="G47" s="39"/>
+      <c r="H47" s="39"/>
+      <c r="I47" s="39"/>
+      <c r="J47" s="40"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A48" s="40"/>
-      <c r="B48" s="40"/>
-      <c r="C48" s="40"/>
-      <c r="D48" s="40"/>
-      <c r="E48" s="40"/>
-      <c r="F48" s="40"/>
-      <c r="G48" s="40"/>
-      <c r="H48" s="40"/>
-      <c r="I48" s="40"/>
-      <c r="J48" s="41"/>
+      <c r="A48" s="39"/>
+      <c r="B48" s="39"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="39"/>
+      <c r="F48" s="39"/>
+      <c r="G48" s="39"/>
+      <c r="H48" s="39"/>
+      <c r="I48" s="39"/>
+      <c r="J48" s="40"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" s="40"/>
-      <c r="B49" s="40"/>
-      <c r="C49" s="40"/>
-      <c r="D49" s="40"/>
-      <c r="E49" s="40"/>
-      <c r="F49" s="40"/>
-      <c r="G49" s="40"/>
-      <c r="H49" s="40"/>
-      <c r="I49" s="40"/>
-      <c r="J49" s="41"/>
+      <c r="A49" s="39"/>
+      <c r="B49" s="39"/>
+      <c r="C49" s="39"/>
+      <c r="D49" s="39"/>
+      <c r="E49" s="39"/>
+      <c r="F49" s="39"/>
+      <c r="G49" s="39"/>
+      <c r="H49" s="39"/>
+      <c r="I49" s="39"/>
+      <c r="J49" s="40"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50" s="40"/>
-      <c r="B50" s="40"/>
-      <c r="C50" s="40"/>
-      <c r="D50" s="40"/>
-      <c r="E50" s="40"/>
-      <c r="F50" s="40"/>
-      <c r="G50" s="40"/>
-      <c r="H50" s="40"/>
-      <c r="I50" s="40"/>
-      <c r="J50" s="41"/>
+      <c r="A50" s="39"/>
+      <c r="B50" s="39"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="39"/>
+      <c r="F50" s="39"/>
+      <c r="G50" s="39"/>
+      <c r="H50" s="39"/>
+      <c r="I50" s="39"/>
+      <c r="J50" s="40"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51" s="40"/>
-      <c r="B51" s="40"/>
-      <c r="C51" s="40"/>
-      <c r="D51" s="40"/>
-      <c r="E51" s="40"/>
-      <c r="F51" s="40"/>
-      <c r="G51" s="40"/>
-      <c r="H51" s="40"/>
-      <c r="I51" s="40"/>
-      <c r="J51" s="41"/>
+      <c r="A51" s="39"/>
+      <c r="B51" s="39"/>
+      <c r="C51" s="39"/>
+      <c r="D51" s="39"/>
+      <c r="E51" s="39"/>
+      <c r="F51" s="39"/>
+      <c r="G51" s="39"/>
+      <c r="H51" s="39"/>
+      <c r="I51" s="39"/>
+      <c r="J51" s="40"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A52" s="40"/>
-      <c r="B52" s="40"/>
-      <c r="C52" s="40"/>
-      <c r="D52" s="40"/>
-      <c r="E52" s="40"/>
-      <c r="F52" s="40"/>
-      <c r="G52" s="40"/>
-      <c r="H52" s="40"/>
-      <c r="I52" s="40"/>
-      <c r="J52" s="41"/>
+      <c r="A52" s="39"/>
+      <c r="B52" s="39"/>
+      <c r="C52" s="39"/>
+      <c r="D52" s="39"/>
+      <c r="E52" s="39"/>
+      <c r="F52" s="39"/>
+      <c r="G52" s="39"/>
+      <c r="H52" s="39"/>
+      <c r="I52" s="39"/>
+      <c r="J52" s="40"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A53" s="40"/>
-      <c r="B53" s="40"/>
-      <c r="C53" s="40"/>
-      <c r="D53" s="40"/>
-      <c r="E53" s="40"/>
-      <c r="F53" s="40"/>
-      <c r="G53" s="40"/>
-      <c r="H53" s="40"/>
-      <c r="I53" s="40"/>
-      <c r="J53" s="41"/>
+      <c r="A53" s="39"/>
+      <c r="B53" s="39"/>
+      <c r="C53" s="39"/>
+      <c r="D53" s="39"/>
+      <c r="E53" s="39"/>
+      <c r="F53" s="39"/>
+      <c r="G53" s="39"/>
+      <c r="H53" s="39"/>
+      <c r="I53" s="39"/>
+      <c r="J53" s="40"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A54" s="40"/>
-      <c r="B54" s="40"/>
-      <c r="C54" s="40"/>
-      <c r="D54" s="40"/>
-      <c r="E54" s="40"/>
-      <c r="F54" s="40"/>
-      <c r="G54" s="40"/>
-      <c r="H54" s="40"/>
-      <c r="I54" s="40"/>
-      <c r="J54" s="41"/>
+      <c r="A54" s="39"/>
+      <c r="B54" s="39"/>
+      <c r="C54" s="39"/>
+      <c r="D54" s="39"/>
+      <c r="E54" s="39"/>
+      <c r="F54" s="39"/>
+      <c r="G54" s="39"/>
+      <c r="H54" s="39"/>
+      <c r="I54" s="39"/>
+      <c r="J54" s="40"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" s="40"/>
-      <c r="B55" s="40"/>
-      <c r="C55" s="40"/>
-      <c r="D55" s="40"/>
-      <c r="E55" s="40"/>
-      <c r="F55" s="40"/>
-      <c r="G55" s="40"/>
-      <c r="H55" s="40"/>
-      <c r="I55" s="40"/>
-      <c r="J55" s="41"/>
+      <c r="A55" s="39"/>
+      <c r="B55" s="39"/>
+      <c r="C55" s="39"/>
+      <c r="D55" s="39"/>
+      <c r="E55" s="39"/>
+      <c r="F55" s="39"/>
+      <c r="G55" s="39"/>
+      <c r="H55" s="39"/>
+      <c r="I55" s="39"/>
+      <c r="J55" s="40"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A56" s="40"/>
-      <c r="B56" s="40"/>
-      <c r="C56" s="40"/>
-      <c r="D56" s="40"/>
-      <c r="E56" s="40"/>
-      <c r="F56" s="40"/>
-      <c r="G56" s="40"/>
-      <c r="H56" s="40"/>
-      <c r="I56" s="40"/>
-      <c r="J56" s="41"/>
+      <c r="A56" s="39"/>
+      <c r="B56" s="39"/>
+      <c r="C56" s="39"/>
+      <c r="D56" s="39"/>
+      <c r="E56" s="39"/>
+      <c r="F56" s="39"/>
+      <c r="G56" s="39"/>
+      <c r="H56" s="39"/>
+      <c r="I56" s="39"/>
+      <c r="J56" s="40"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A57" s="40"/>
-      <c r="B57" s="40"/>
-      <c r="C57" s="40"/>
-      <c r="D57" s="40"/>
-      <c r="E57" s="40"/>
-      <c r="F57" s="40"/>
-      <c r="G57" s="40"/>
-      <c r="H57" s="40"/>
-      <c r="I57" s="40"/>
-      <c r="J57" s="41"/>
+      <c r="A57" s="39"/>
+      <c r="B57" s="39"/>
+      <c r="C57" s="39"/>
+      <c r="D57" s="39"/>
+      <c r="E57" s="39"/>
+      <c r="F57" s="39"/>
+      <c r="G57" s="39"/>
+      <c r="H57" s="39"/>
+      <c r="I57" s="39"/>
+      <c r="J57" s="40"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A58" s="40"/>
-      <c r="B58" s="40"/>
-      <c r="C58" s="40"/>
-      <c r="D58" s="40"/>
-      <c r="E58" s="40"/>
-      <c r="F58" s="40"/>
-      <c r="G58" s="40"/>
-      <c r="H58" s="40"/>
-      <c r="I58" s="40"/>
-      <c r="J58" s="41"/>
+      <c r="A58" s="39"/>
+      <c r="B58" s="39"/>
+      <c r="C58" s="39"/>
+      <c r="D58" s="39"/>
+      <c r="E58" s="39"/>
+      <c r="F58" s="39"/>
+      <c r="G58" s="39"/>
+      <c r="H58" s="39"/>
+      <c r="I58" s="39"/>
+      <c r="J58" s="40"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A59" s="40"/>
-      <c r="B59" s="40"/>
-      <c r="C59" s="40"/>
-      <c r="D59" s="40"/>
-      <c r="E59" s="40"/>
-      <c r="F59" s="40"/>
-      <c r="G59" s="40"/>
-      <c r="H59" s="40"/>
-      <c r="I59" s="40"/>
-      <c r="J59" s="41"/>
+      <c r="A59" s="39"/>
+      <c r="B59" s="39"/>
+      <c r="C59" s="39"/>
+      <c r="D59" s="39"/>
+      <c r="E59" s="39"/>
+      <c r="F59" s="39"/>
+      <c r="G59" s="39"/>
+      <c r="H59" s="39"/>
+      <c r="I59" s="39"/>
+      <c r="J59" s="40"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A60" s="40"/>
-      <c r="B60" s="40"/>
-      <c r="C60" s="40"/>
-      <c r="D60" s="40"/>
-      <c r="E60" s="40"/>
-      <c r="F60" s="40"/>
-      <c r="G60" s="40"/>
-      <c r="H60" s="40"/>
-      <c r="I60" s="40"/>
-      <c r="J60" s="41"/>
+      <c r="A60" s="39"/>
+      <c r="B60" s="39"/>
+      <c r="C60" s="39"/>
+      <c r="D60" s="39"/>
+      <c r="E60" s="39"/>
+      <c r="F60" s="39"/>
+      <c r="G60" s="39"/>
+      <c r="H60" s="39"/>
+      <c r="I60" s="39"/>
+      <c r="J60" s="40"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A61" s="40"/>
-      <c r="B61" s="40"/>
-      <c r="C61" s="40"/>
-      <c r="D61" s="40"/>
-      <c r="E61" s="40"/>
-      <c r="F61" s="40"/>
-      <c r="G61" s="40"/>
-      <c r="H61" s="40"/>
-      <c r="I61" s="40"/>
-      <c r="J61" s="41"/>
+      <c r="A61" s="39"/>
+      <c r="B61" s="39"/>
+      <c r="C61" s="39"/>
+      <c r="D61" s="39"/>
+      <c r="E61" s="39"/>
+      <c r="F61" s="39"/>
+      <c r="G61" s="39"/>
+      <c r="H61" s="39"/>
+      <c r="I61" s="39"/>
+      <c r="J61" s="40"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A62" s="40"/>
-      <c r="B62" s="40"/>
-      <c r="C62" s="40"/>
-      <c r="D62" s="40"/>
-      <c r="E62" s="40"/>
-      <c r="F62" s="40"/>
-      <c r="G62" s="40"/>
-      <c r="H62" s="40"/>
-      <c r="I62" s="40"/>
-      <c r="J62" s="41"/>
+      <c r="A62" s="39"/>
+      <c r="B62" s="39"/>
+      <c r="C62" s="39"/>
+      <c r="D62" s="39"/>
+      <c r="E62" s="39"/>
+      <c r="F62" s="39"/>
+      <c r="G62" s="39"/>
+      <c r="H62" s="39"/>
+      <c r="I62" s="39"/>
+      <c r="J62" s="40"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A63" s="40"/>
-      <c r="B63" s="40"/>
-      <c r="C63" s="40"/>
-      <c r="D63" s="40"/>
-      <c r="E63" s="40"/>
-      <c r="F63" s="40"/>
-      <c r="G63" s="40"/>
-      <c r="H63" s="40"/>
-      <c r="I63" s="40"/>
-      <c r="J63" s="41"/>
+      <c r="A63" s="39"/>
+      <c r="B63" s="39"/>
+      <c r="C63" s="39"/>
+      <c r="D63" s="39"/>
+      <c r="E63" s="39"/>
+      <c r="F63" s="39"/>
+      <c r="G63" s="39"/>
+      <c r="H63" s="39"/>
+      <c r="I63" s="39"/>
+      <c r="J63" s="40"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A64" s="40"/>
-      <c r="B64" s="40"/>
-      <c r="C64" s="40"/>
-      <c r="D64" s="40"/>
-      <c r="E64" s="40"/>
-      <c r="F64" s="40"/>
-      <c r="G64" s="40"/>
-      <c r="H64" s="40"/>
-      <c r="I64" s="40"/>
-      <c r="J64" s="41"/>
+      <c r="A64" s="39"/>
+      <c r="B64" s="39"/>
+      <c r="C64" s="39"/>
+      <c r="D64" s="39"/>
+      <c r="E64" s="39"/>
+      <c r="F64" s="39"/>
+      <c r="G64" s="39"/>
+      <c r="H64" s="39"/>
+      <c r="I64" s="39"/>
+      <c r="J64" s="40"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A65" s="40"/>
-      <c r="B65" s="40"/>
-      <c r="C65" s="40"/>
-      <c r="D65" s="40"/>
-      <c r="E65" s="40"/>
-      <c r="F65" s="40"/>
-      <c r="G65" s="40"/>
-      <c r="H65" s="40"/>
-      <c r="I65" s="40"/>
-      <c r="J65" s="41"/>
+      <c r="A65" s="39"/>
+      <c r="B65" s="39"/>
+      <c r="C65" s="39"/>
+      <c r="D65" s="39"/>
+      <c r="E65" s="39"/>
+      <c r="F65" s="39"/>
+      <c r="G65" s="39"/>
+      <c r="H65" s="39"/>
+      <c r="I65" s="39"/>
+      <c r="J65" s="40"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A66" s="25"/>
-      <c r="B66" s="19"/>
-      <c r="C66" s="19"/>
-      <c r="D66" s="19"/>
-      <c r="E66" s="19"/>
-      <c r="F66" s="19"/>
-      <c r="G66" s="19"/>
-      <c r="H66" s="19"/>
-      <c r="I66" s="19"/>
-      <c r="J66" s="20"/>
+      <c r="A66" s="17"/>
+      <c r="B66" s="28"/>
+      <c r="C66" s="28"/>
+      <c r="D66" s="28"/>
+      <c r="E66" s="28"/>
+      <c r="F66" s="28"/>
+      <c r="G66" s="28"/>
+      <c r="H66" s="28"/>
+      <c r="I66" s="28"/>
+      <c r="J66" s="18"/>
     </row>
     <row r="67" spans="1:10" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="36"/>
@@ -2820,16 +2876,16 @@
       <c r="J67" s="38"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A68" s="25"/>
-      <c r="B68" s="19"/>
-      <c r="C68" s="19"/>
-      <c r="D68" s="19"/>
-      <c r="E68" s="19"/>
-      <c r="F68" s="19"/>
-      <c r="G68" s="19"/>
-      <c r="H68" s="19"/>
-      <c r="I68" s="19"/>
-      <c r="J68" s="20"/>
+      <c r="A68" s="17"/>
+      <c r="B68" s="28"/>
+      <c r="C68" s="28"/>
+      <c r="D68" s="28"/>
+      <c r="E68" s="28"/>
+      <c r="F68" s="28"/>
+      <c r="G68" s="28"/>
+      <c r="H68" s="28"/>
+      <c r="I68" s="28"/>
+      <c r="J68" s="18"/>
     </row>
     <row r="69" spans="1:10" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="36"/>
@@ -2844,16 +2900,16 @@
       <c r="J69" s="38"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A70" s="25"/>
-      <c r="B70" s="19"/>
-      <c r="C70" s="19"/>
-      <c r="D70" s="19"/>
-      <c r="E70" s="19"/>
-      <c r="F70" s="19"/>
-      <c r="G70" s="19"/>
-      <c r="H70" s="19"/>
-      <c r="I70" s="19"/>
-      <c r="J70" s="20"/>
+      <c r="A70" s="17"/>
+      <c r="B70" s="28"/>
+      <c r="C70" s="28"/>
+      <c r="D70" s="28"/>
+      <c r="E70" s="28"/>
+      <c r="F70" s="28"/>
+      <c r="G70" s="28"/>
+      <c r="H70" s="28"/>
+      <c r="I70" s="28"/>
+      <c r="J70" s="18"/>
     </row>
     <row r="71" spans="1:10" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="36"/>
@@ -2869,14 +2925,14 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A69:J69"/>
-    <mergeCell ref="A70:J70"/>
-    <mergeCell ref="A71:J71"/>
-    <mergeCell ref="A41:J41"/>
-    <mergeCell ref="A42:J65"/>
-    <mergeCell ref="A66:J66"/>
-    <mergeCell ref="A67:J67"/>
-    <mergeCell ref="A68:J68"/>
+    <mergeCell ref="A38:J38"/>
+    <mergeCell ref="A39:J39"/>
+    <mergeCell ref="A40:J40"/>
+    <mergeCell ref="A33:J33"/>
+    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="A36:J36"/>
+    <mergeCell ref="A37:J37"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A32:J32"/>
@@ -2886,14 +2942,14 @@
     <mergeCell ref="E3:J3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="E4:J4"/>
-    <mergeCell ref="A38:J38"/>
-    <mergeCell ref="A39:J39"/>
-    <mergeCell ref="A40:J40"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A35:J35"/>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="A69:J69"/>
+    <mergeCell ref="A70:J70"/>
+    <mergeCell ref="A71:J71"/>
+    <mergeCell ref="A41:J41"/>
+    <mergeCell ref="A42:J65"/>
+    <mergeCell ref="A66:J66"/>
+    <mergeCell ref="A67:J67"/>
+    <mergeCell ref="A68:J68"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
